--- a/natmiOut/OldD4/LR-pairs_lrc2p/Spp1-Itgav.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Spp1-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H2">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I2">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J2">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N2">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O2">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P2">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q2">
-        <v>403.1734223442443</v>
+        <v>122.9525142606396</v>
       </c>
       <c r="R2">
-        <v>403.1734223442443</v>
+        <v>1106.572628345756</v>
       </c>
       <c r="S2">
-        <v>0.001236169281497627</v>
+        <v>0.0002561488147213792</v>
       </c>
       <c r="T2">
-        <v>0.001236169281497627</v>
+        <v>0.0002698760255960887</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H3">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I3">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J3">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N3">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P3">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q3">
-        <v>3516.426197592368</v>
+        <v>809.7205378789938</v>
       </c>
       <c r="R3">
-        <v>3516.426197592368</v>
+        <v>7287.484840910945</v>
       </c>
       <c r="S3">
-        <v>0.01078170783391979</v>
+        <v>0.001686902925739186</v>
       </c>
       <c r="T3">
-        <v>0.01078170783391979</v>
+        <v>0.001777305343614804</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H4">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I4">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J4">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N4">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O4">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P4">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q4">
-        <v>2870.208963366313</v>
+        <v>680.0121887570194</v>
       </c>
       <c r="R4">
-        <v>2870.208963366313</v>
+        <v>6120.109698813176</v>
       </c>
       <c r="S4">
-        <v>0.008800342372179274</v>
+        <v>0.001416679579052435</v>
       </c>
       <c r="T4">
-        <v>0.008800342372179274</v>
+        <v>0.001492600521121602</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H5">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I5">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J5">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N5">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O5">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P5">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q5">
-        <v>3170.214904961878</v>
+        <v>700.0501766189163</v>
       </c>
       <c r="R5">
-        <v>3170.214904961878</v>
+        <v>6300.451589570247</v>
       </c>
       <c r="S5">
-        <v>0.009720190032550488</v>
+        <v>0.001458425019323349</v>
       </c>
       <c r="T5">
-        <v>0.009720190032550488</v>
+        <v>0.001536583131462109</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H6">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I6">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J6">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N6">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O6">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P6">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q6">
-        <v>1249.549722402312</v>
+        <v>300.3366628026068</v>
       </c>
       <c r="R6">
-        <v>1249.549722402312</v>
+        <v>1802.019976815641</v>
       </c>
       <c r="S6">
-        <v>0.003831242083260989</v>
+        <v>0.0006256958684975012</v>
       </c>
       <c r="T6">
-        <v>0.003831242083260989</v>
+        <v>0.0004394849257339543</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H7">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I7">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J7">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N7">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O7">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P7">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q7">
-        <v>5461.626802715093</v>
+        <v>648.6526758573565</v>
       </c>
       <c r="R7">
-        <v>5461.626802715093</v>
+        <v>5837.874082716208</v>
       </c>
       <c r="S7">
-        <v>0.01674588379676432</v>
+        <v>0.001351347836080018</v>
       </c>
       <c r="T7">
-        <v>0.01674588379676432</v>
+        <v>0.001423767600079826</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H8">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I8">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J8">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N8">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P8">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q8">
-        <v>47635.59923883504</v>
+        <v>4271.790591272252</v>
       </c>
       <c r="R8">
-        <v>47635.59923883504</v>
+        <v>38446.11532145026</v>
       </c>
       <c r="S8">
-        <v>0.1460554223599116</v>
+        <v>0.008899485327910977</v>
       </c>
       <c r="T8">
-        <v>0.1460554223599116</v>
+        <v>0.009376415552653575</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H9">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I9">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J9">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N9">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O9">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P9">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q9">
-        <v>38881.55650877651</v>
+        <v>3587.496591715196</v>
       </c>
       <c r="R9">
-        <v>38881.55650877651</v>
+        <v>32287.46932543677</v>
       </c>
       <c r="S9">
-        <v>0.1192146682028179</v>
+        <v>0.007473885388279617</v>
       </c>
       <c r="T9">
-        <v>0.1192146682028179</v>
+        <v>0.00787441662200764</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H10">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I10">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J10">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N10">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O10">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P10">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q10">
-        <v>42945.61530031335</v>
+        <v>3693.209716197252</v>
       </c>
       <c r="R10">
-        <v>42945.61530031335</v>
+        <v>33238.88744577527</v>
       </c>
       <c r="S10">
-        <v>0.1316754713159969</v>
+        <v>0.007694119124038533</v>
       </c>
       <c r="T10">
-        <v>0.1316754713159969</v>
+        <v>0.008106452852093052</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H11">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I11">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J11">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N11">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O11">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P11">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q11">
-        <v>16927.14320184181</v>
+        <v>1584.466825721065</v>
       </c>
       <c r="R11">
-        <v>16927.14320184181</v>
+        <v>9506.800954326389</v>
       </c>
       <c r="S11">
-        <v>0.0519002823349845</v>
+        <v>0.003300943472481094</v>
       </c>
       <c r="T11">
-        <v>0.0519002823349845</v>
+        <v>0.002318562371746152</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>745.621996578071</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H12">
-        <v>745.621996578071</v>
+        <v>3431.157776</v>
       </c>
       <c r="I12">
-        <v>0.4914008435901807</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J12">
-        <v>0.4914008435901807</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N12">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O12">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P12">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q12">
-        <v>5764.380801388625</v>
+        <v>12219.74207799553</v>
       </c>
       <c r="R12">
-        <v>5764.380801388625</v>
+        <v>109977.6787019598</v>
       </c>
       <c r="S12">
-        <v>0.01767415726983874</v>
+        <v>0.02545757171621776</v>
       </c>
       <c r="T12">
-        <v>0.01767415726983874</v>
+        <v>0.02682186245356387</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>745.621996578071</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H13">
-        <v>745.621996578071</v>
+        <v>3431.157776</v>
       </c>
       <c r="I13">
-        <v>0.4914008435901807</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J13">
-        <v>0.4914008435901807</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N13">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P13">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q13">
-        <v>50276.1802726028</v>
+        <v>80474.77668624331</v>
       </c>
       <c r="R13">
-        <v>50276.1802726028</v>
+        <v>724272.9901761897</v>
       </c>
       <c r="S13">
-        <v>0.1541517029636014</v>
+        <v>0.1676543077390964</v>
       </c>
       <c r="T13">
-        <v>0.1541517029636014</v>
+        <v>0.1766390303070745</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>745.621996578071</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H14">
-        <v>745.621996578071</v>
+        <v>3431.157776</v>
       </c>
       <c r="I14">
-        <v>0.4914008435901807</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J14">
-        <v>0.4914008435901807</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N14">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O14">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P14">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q14">
-        <v>41036.87526871652</v>
+        <v>67583.60011157666</v>
       </c>
       <c r="R14">
-        <v>41036.87526871652</v>
+        <v>608252.4010041899</v>
       </c>
       <c r="S14">
-        <v>0.1258230870499275</v>
+        <v>0.1407979264782379</v>
       </c>
       <c r="T14">
-        <v>0.1258230870499275</v>
+        <v>0.1483433950356113</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>745.621996578071</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H15">
-        <v>745.621996578071</v>
+        <v>3431.157776</v>
       </c>
       <c r="I15">
-        <v>0.4914008435901807</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J15">
-        <v>0.4914008435901807</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N15">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O15">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P15">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q15">
-        <v>45326.21676345278</v>
+        <v>69575.09288345542</v>
       </c>
       <c r="R15">
-        <v>45326.21676345278</v>
+        <v>626175.8359510987</v>
       </c>
       <c r="S15">
-        <v>0.1389746290410033</v>
+        <v>0.144946833201378</v>
       </c>
       <c r="T15">
-        <v>0.1389746290410033</v>
+        <v>0.1527146448429854</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>745.621996578071</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H16">
-        <v>745.621996578071</v>
+        <v>3431.157776</v>
       </c>
       <c r="I16">
-        <v>0.4914008435901807</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J16">
-        <v>0.4914008435901807</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N16">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O16">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P16">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q16">
-        <v>17865.46441557422</v>
+        <v>29849.21925414133</v>
       </c>
       <c r="R16">
-        <v>17865.46441557422</v>
+        <v>179095.315524848</v>
       </c>
       <c r="S16">
-        <v>0.05477726726580961</v>
+        <v>0.06218532559731895</v>
       </c>
       <c r="T16">
-        <v>0.05477726726580961</v>
+        <v>0.04367858983551628</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.1064414410178</v>
+        <v>815.2030129999999</v>
       </c>
       <c r="H17">
-        <v>13.1064414410178</v>
+        <v>2445.609039</v>
       </c>
       <c r="I17">
-        <v>0.008637776795935888</v>
+        <v>0.3856357549870674</v>
       </c>
       <c r="J17">
-        <v>0.008637776795935888</v>
+        <v>0.3907359858235961</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N17">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O17">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P17">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q17">
-        <v>101.3254970532735</v>
+        <v>8709.803987805457</v>
       </c>
       <c r="R17">
-        <v>101.3254970532735</v>
+        <v>78388.23589024911</v>
       </c>
       <c r="S17">
-        <v>0.0003106739183387623</v>
+        <v>0.01814526511594985</v>
       </c>
       <c r="T17">
-        <v>0.0003106739183387623</v>
+        <v>0.01911768375038738</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.1064414410178</v>
+        <v>815.2030129999999</v>
       </c>
       <c r="H18">
-        <v>13.1064414410178</v>
+        <v>2445.609039</v>
       </c>
       <c r="I18">
-        <v>0.008637776795935888</v>
+        <v>0.3856357549870674</v>
       </c>
       <c r="J18">
-        <v>0.008637776795935888</v>
+        <v>0.3907359858235961</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N18">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O18">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P18">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q18">
-        <v>883.7478181237211</v>
+        <v>57359.60108043224</v>
       </c>
       <c r="R18">
-        <v>883.7478181237211</v>
+        <v>516236.4097238901</v>
       </c>
       <c r="S18">
-        <v>0.002709657543900083</v>
+        <v>0.1194981161466769</v>
       </c>
       <c r="T18">
-        <v>0.002709657543900083</v>
+        <v>0.1259021115790206</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.1064414410178</v>
+        <v>815.2030129999999</v>
       </c>
       <c r="H19">
-        <v>13.1064414410178</v>
+        <v>2445.609039</v>
       </c>
       <c r="I19">
-        <v>0.008637776795935888</v>
+        <v>0.3856357549870674</v>
       </c>
       <c r="J19">
-        <v>0.008637776795935888</v>
+        <v>0.3907359858235961</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N19">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O19">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P19">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q19">
-        <v>721.3405788726203</v>
+        <v>48171.22210967463</v>
       </c>
       <c r="R19">
-        <v>721.3405788726203</v>
+        <v>433540.9989870717</v>
       </c>
       <c r="S19">
-        <v>0.002211701009246299</v>
+        <v>0.1003558285999484</v>
       </c>
       <c r="T19">
-        <v>0.002211701009246299</v>
+        <v>0.1057339742033007</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.1064414410178</v>
+        <v>815.2030129999999</v>
       </c>
       <c r="H20">
-        <v>13.1064414410178</v>
+        <v>2445.609039</v>
       </c>
       <c r="I20">
-        <v>0.008637776795935888</v>
+        <v>0.3856357549870674</v>
       </c>
       <c r="J20">
-        <v>0.008637776795935888</v>
+        <v>0.3907359858235961</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N20">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O20">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P20">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q20">
-        <v>796.7380368061218</v>
+        <v>49590.68837790545</v>
       </c>
       <c r="R20">
-        <v>796.7380368061218</v>
+        <v>446316.1954011491</v>
       </c>
       <c r="S20">
-        <v>0.002442877014992092</v>
+        <v>0.1033130239393909</v>
       </c>
       <c r="T20">
-        <v>0.002442877014992092</v>
+        <v>0.1088496479025451</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>815.2030129999999</v>
+      </c>
+      <c r="H21">
+        <v>2445.609039</v>
+      </c>
+      <c r="I21">
+        <v>0.3856357549870674</v>
+      </c>
+      <c r="J21">
+        <v>0.3907359858235961</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>26.0983795</v>
+      </c>
+      <c r="N21">
+        <v>52.196759</v>
+      </c>
+      <c r="O21">
+        <v>0.1149362335102661</v>
+      </c>
+      <c r="P21">
+        <v>0.07967673702415903</v>
+      </c>
+      <c r="Q21">
+        <v>21275.47760281743</v>
+      </c>
+      <c r="R21">
+        <v>127652.8656169046</v>
+      </c>
+      <c r="S21">
+        <v>0.04432352118510136</v>
+      </c>
+      <c r="T21">
+        <v>0.0311325683883422</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H22">
+        <v>165.556469</v>
+      </c>
+      <c r="I22">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J22">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>10.68421466666667</v>
+      </c>
+      <c r="N22">
+        <v>32.052644</v>
+      </c>
+      <c r="O22">
+        <v>0.04705285980693976</v>
+      </c>
+      <c r="P22">
+        <v>0.04892736897547583</v>
+      </c>
+      <c r="Q22">
+        <v>884.4204271256729</v>
+      </c>
+      <c r="R22">
+        <v>5306.522562754037</v>
+      </c>
+      <c r="S22">
+        <v>0.001842526323970747</v>
+      </c>
+      <c r="T22">
+        <v>0.001294179145848672</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H23">
+        <v>165.556469</v>
+      </c>
+      <c r="I23">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J23">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>70.36235166666667</v>
+      </c>
+      <c r="N23">
+        <v>211.087055</v>
+      </c>
+      <c r="O23">
+        <v>0.3098730203341347</v>
+      </c>
+      <c r="P23">
+        <v>0.3222178559101571</v>
+      </c>
+      <c r="Q23">
+        <v>5824.4712462348</v>
+      </c>
+      <c r="R23">
+        <v>34946.8274774088</v>
+      </c>
+      <c r="S23">
+        <v>0.0121342081947112</v>
+      </c>
+      <c r="T23">
+        <v>0.008522993127793504</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H24">
+        <v>165.556469</v>
+      </c>
+      <c r="I24">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J24">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>59.09107466666666</v>
+      </c>
+      <c r="N24">
+        <v>177.273224</v>
+      </c>
+      <c r="O24">
+        <v>0.2602347611759026</v>
+      </c>
+      <c r="P24">
+        <v>0.2706020894912812</v>
+      </c>
+      <c r="Q24">
+        <v>4891.454835614343</v>
+      </c>
+      <c r="R24">
+        <v>29348.72901368606</v>
+      </c>
+      <c r="S24">
+        <v>0.01019044113038421</v>
+      </c>
+      <c r="T24">
+        <v>0.007157703109239923</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>13.1064414410178</v>
-      </c>
-      <c r="H21">
-        <v>13.1064414410178</v>
-      </c>
-      <c r="I21">
-        <v>0.008637776795935888</v>
-      </c>
-      <c r="J21">
-        <v>0.008637776795935888</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>23.9604846659102</v>
-      </c>
-      <c r="N21">
-        <v>23.9604846659102</v>
-      </c>
-      <c r="O21">
-        <v>0.1114716589935138</v>
-      </c>
-      <c r="P21">
-        <v>0.1114716589935138</v>
-      </c>
-      <c r="Q21">
-        <v>314.036689172157</v>
-      </c>
-      <c r="R21">
-        <v>314.036689172157</v>
-      </c>
-      <c r="S21">
-        <v>0.0009628673094586513</v>
-      </c>
-      <c r="T21">
-        <v>0.0009628673094586513</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H25">
+        <v>165.556469</v>
+      </c>
+      <c r="I25">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J25">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>60.83231733333333</v>
+      </c>
+      <c r="N25">
+        <v>182.496952</v>
+      </c>
+      <c r="O25">
+        <v>0.2679031251727568</v>
+      </c>
+      <c r="P25">
+        <v>0.2785759485989269</v>
+      </c>
+      <c r="Q25">
+        <v>5035.591829397082</v>
+      </c>
+      <c r="R25">
+        <v>30213.55097638249</v>
+      </c>
+      <c r="S25">
+        <v>0.01049072388862603</v>
+      </c>
+      <c r="T25">
+        <v>0.007368619869841195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H26">
+        <v>165.556469</v>
+      </c>
+      <c r="I26">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J26">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>26.0983795</v>
+      </c>
+      <c r="N26">
+        <v>52.196759</v>
+      </c>
+      <c r="O26">
+        <v>0.1149362335102661</v>
+      </c>
+      <c r="P26">
+        <v>0.07967673702415903</v>
+      </c>
+      <c r="Q26">
+        <v>2160.377778320993</v>
+      </c>
+      <c r="R26">
+        <v>8641.511113283972</v>
+      </c>
+      <c r="S26">
+        <v>0.004500747386867226</v>
+      </c>
+      <c r="T26">
+        <v>0.002107531502820454</v>
       </c>
     </row>
   </sheetData>
